--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,12 +923,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -963,7 +963,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1802,7 +1802,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Week: Week01</t>
+          <t>Week: Week02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1820,7 +1820,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Generated: 2023-09-28 04:28:32 PM</t>
+          <t>Generated: 2023-09-30 11:21:49 AM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1838,7 +1838,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Week: Week02</t>
+          <t>Week: Week03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1856,7 +1856,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Week: Week03</t>
+          <t>Week: Week04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Week: Week04</t>
+          <t>Week: Week05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1892,7 +1892,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Week: Week05</t>
+          <t>Week: Week06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Week: Week06</t>
+          <t>Week: Week07</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1925,24 +1925,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Week: Week07</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -337,15 +337,6 @@
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -726,19 +717,16 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="3" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="8" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1600,10 +1588,10 @@
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1629,16 +1617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -2420,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -313,13 +313,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -333,12 +339,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -423,7 +423,7 @@
     <tableColumn id="7" name="Week 5"/>
     <tableColumn id="8" name="Week 6"/>
     <tableColumn id="9" name="Week 7"/>
-    <tableColumn id="10" name="Total Streak" dataDxfId="2"/>
+    <tableColumn id="10" name="Total Streak" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -716,17 +716,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1038,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1047,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1601,7 +1605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J27">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1902,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -674,7 +674,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -674,7 +674,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -869,7 +869,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -629,11 +629,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -874,7 +874,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -969,7 +969,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -679,11 +679,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1679,11 +1679,11 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -1774,7 +1774,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -974,16 +974,16 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2176,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">

--- a/Sample_Task_name/Consolidated_Report.xlsx
+++ b/Sample_Task_name/Consolidated_Report.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,21 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Week 9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Week 10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Total Streak</t>
         </is>
       </c>
@@ -532,7 +547,22 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -582,7 +612,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -632,7 +677,22 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -682,7 +742,22 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -732,7 +807,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -782,7 +872,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -832,7 +937,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,7 +1002,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -932,7 +1067,22 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -982,7 +1132,22 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1032,7 +1197,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1059,7 +1239,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1082,8 +1262,23 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>2</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1132,7 +1327,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1182,7 +1392,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,7 +1457,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1282,7 +1522,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1332,7 +1587,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1652,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1432,7 +1717,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1482,7 +1782,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1532,7 +1847,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1582,7 +1912,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1632,7 +1977,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1682,7 +2042,22 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1732,7 +2107,22 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +2172,22 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1797,7 +2202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,6 +2256,21 @@
           <t>Streak Week 7</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Streak Week 8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Streak Week 9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Streak Week 10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1884,6 +2304,15 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1917,6 +2346,15 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1950,6 +2388,15 @@
       <c r="I4" t="n">
         <v>1</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1983,6 +2430,15 @@
       <c r="I5" t="n">
         <v>1</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2016,6 +2472,15 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2049,6 +2514,15 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2082,6 +2556,15 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2115,6 +2598,15 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2148,6 +2640,15 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2181,6 +2682,15 @@
       <c r="I11" t="n">
         <v>1</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2214,6 +2724,15 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2233,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2245,6 +2764,15 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,6 +2808,15 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2313,6 +2850,15 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2346,6 +2892,15 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2379,6 +2934,15 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2412,6 +2976,15 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2445,6 +3018,15 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2478,6 +3060,15 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2511,6 +3102,15 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2544,6 +3144,15 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2577,6 +3186,15 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2610,6 +3228,15 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,6 +3270,15 @@
       <c r="I25" t="n">
         <v>1</v>
       </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2676,6 +3312,15 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2708,6 +3353,15 @@
       </c>
       <c r="I27" t="n">
         <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
